--- a/config_4.27/game_module_config_cjj.xlsx
+++ b/config_4.27/game_module_config_cjj.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_4.27\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="15870" windowHeight="10380"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="10380"/>
   </bookViews>
   <sheets>
     <sheet name="config|游戏的所有模块" sheetId="7" r:id="rId1"/>
@@ -484,6 +489,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -494,6 +500,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -506,7 +513,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -515,6 +522,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>专享</t>
@@ -524,7 +532,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -533,6 +541,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>和游戏中的</t>
@@ -542,7 +551,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -551,6 +560,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>系统有牵连</t>
@@ -560,7 +570,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -619,6 +629,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -629,6 +640,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -677,6 +689,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -687,6 +700,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -771,6 +785,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>免费领红包</t>
@@ -788,6 +803,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>随机金币领取</t>
@@ -805,6 +821,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大厅推荐游戏位</t>
@@ -867,6 +884,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>实名认证</t>
@@ -884,6 +902,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抢红包</t>
@@ -1153,6 +1172,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1163,6 +1183,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1173,6 +1194,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1269,6 +1291,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>鼠年</t>
@@ -1278,7 +1301,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1287,6 +1310,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>赢金抽大奖</t>
@@ -1313,6 +1337,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>点赞有礼</t>
@@ -1330,6 +1355,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>爆竹送礼</t>
@@ -1347,6 +1373,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>红包雨</t>
@@ -1364,6 +1391,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1373,7 +1401,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1382,6 +1410,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神送礼</t>
@@ -1402,6 +1431,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1411,7 +1441,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1420,6 +1450,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1437,6 +1468,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1446,7 +1478,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1455,6 +1487,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>猜灯谜</t>
@@ -1464,7 +1497,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1481,6 +1514,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1490,7 +1524,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1499,6 +1533,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>累计赢金</t>
@@ -1516,6 +1551,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>辞旧岁</t>
@@ -1525,7 +1561,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1534,6 +1570,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>炸弹福利</t>
@@ -1551,6 +1588,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1560,7 +1598,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1569,6 +1607,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1586,6 +1625,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>浪漫情人节</t>
@@ -1603,6 +1643,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>新人七天乐</t>
@@ -1620,6 +1661,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>分享拉新</t>
@@ -1637,6 +1679,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>龙腾祈福</t>
@@ -1654,6 +1697,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1663,7 +1707,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1672,6 +1716,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1689,6 +1734,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1698,7 +1744,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1707,6 +1753,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1724,6 +1771,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1733,7 +1781,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1742,6 +1790,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼福利</t>
@@ -1759,6 +1808,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1768,7 +1818,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1777,6 +1827,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>有奖问答</t>
@@ -1794,6 +1845,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1803,7 +1855,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1812,6 +1864,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抽奖</t>
@@ -1829,6 +1882,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1838,7 +1892,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1847,6 +1901,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>礼物</t>
@@ -1864,6 +1919,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1873,7 +1929,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1882,6 +1938,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神模式</t>
@@ -1908,6 +1965,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树护苗</t>
@@ -1925,6 +1983,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树礼物</t>
@@ -1942,6 +2001,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹充值</t>
@@ -1959,6 +2019,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹收集</t>
@@ -1976,6 +2037,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹购买</t>
@@ -2002,7 +2064,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>0</t>
     </r>
@@ -2011,6 +2073,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元礼包</t>
@@ -2028,7 +2091,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3D</t>
     </r>
@@ -2037,6 +2100,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼-幸运彩贝</t>
@@ -2063,6 +2127,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归惊喜</t>
@@ -2089,6 +2154,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>天女散花</t>
@@ -2106,6 +2172,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -2798,6 +2865,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2808,6 +2876,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3453,6 +3522,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3463,6 +3533,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3493,6 +3564,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3503,6 +3575,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3524,6 +3597,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3534,6 +3608,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3630,6 +3705,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3640,6 +3716,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3706,6 +3783,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3716,6 +3794,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3785,14 +3864,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="34">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3803,6 +3876,7 @@
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3810,24 +3884,27 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3835,18 +3912,19 @@
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3858,177 +3936,42 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="43">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4037,13 +3980,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4067,13 +4010,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4085,204 +4028,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -4305,255 +4062,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -4592,13 +4107,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4737,63 +4252,19 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 4" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 4" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5051,20 +4522,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C317" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C291" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C337" sqref="C337"/>
+      <selection pane="bottomRight" activeCell="H305" sqref="H305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5080,7 +4550,7 @@
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="78" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" ht="78" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5109,7 +4579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="17.1" customHeight="1" spans="1:9">
+    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -5135,7 +4605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:9">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -5161,7 +4631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:9">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -5187,7 +4657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:9">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -5213,7 +4683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:9">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -5239,7 +4709,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:9">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -5265,7 +4735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:9">
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -5291,7 +4761,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:9">
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -5317,7 +4787,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:9">
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -5343,7 +4813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:9">
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -5369,7 +4839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:9">
+    <row r="12" spans="1:9" ht="16.5">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -5395,7 +4865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:9">
+    <row r="13" spans="1:9" ht="16.5">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -5421,7 +4891,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:9">
+    <row r="14" spans="1:9" ht="16.5">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -5447,7 +4917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:9">
+    <row r="15" spans="1:9" ht="16.5">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -5473,7 +4943,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:9">
+    <row r="16" spans="1:9" ht="16.5">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -5499,7 +4969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:9">
+    <row r="17" spans="1:9" ht="16.5">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -5525,7 +4995,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:9">
+    <row r="18" spans="1:9" ht="16.5">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -5551,7 +5021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:9">
+    <row r="19" spans="1:9" ht="16.5">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -5577,7 +5047,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:9">
+    <row r="20" spans="1:9" ht="16.5">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -5603,7 +5073,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:9">
+    <row r="21" spans="1:9" ht="16.5">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -5629,7 +5099,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:9">
+    <row r="22" spans="1:9" ht="16.5">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -5655,7 +5125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:9">
+    <row r="23" spans="1:9" ht="16.5">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -5681,7 +5151,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:9">
+    <row r="24" spans="1:9" ht="16.5">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -5707,7 +5177,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:9">
+    <row r="25" spans="1:9" ht="16.5">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -5733,7 +5203,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:9">
+    <row r="26" spans="1:9" ht="16.5">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -5759,7 +5229,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:9">
+    <row r="27" spans="1:9" ht="16.5">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -5785,7 +5255,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:9">
+    <row r="28" spans="1:9" ht="16.5">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -5811,7 +5281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:9">
+    <row r="29" spans="1:9" ht="16.5">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -5837,7 +5307,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:9">
+    <row r="30" spans="1:9" ht="16.5">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -5863,7 +5333,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:9">
+    <row r="31" spans="1:9" ht="16.5">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -5889,7 +5359,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:9">
+    <row r="32" spans="1:9" ht="16.5">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -5915,7 +5385,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:9">
+    <row r="33" spans="1:9" ht="16.5">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -5941,7 +5411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="1:9">
+    <row r="34" spans="1:9" ht="16.5">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -5967,7 +5437,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="1:9">
+    <row r="35" spans="1:9" ht="16.5">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -5993,7 +5463,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="1:9">
+    <row r="36" spans="1:9" ht="16.5">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -6019,7 +5489,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" ht="16.5" spans="1:9">
+    <row r="37" spans="1:9" ht="16.5">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -6045,7 +5515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" ht="16.5" spans="1:9">
+    <row r="38" spans="1:9" ht="16.5">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -6071,7 +5541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" ht="16.5" spans="1:9">
+    <row r="39" spans="1:9" ht="16.5">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -6097,7 +5567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" ht="16.5" spans="1:9">
+    <row r="40" spans="1:9" ht="16.5">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -6123,7 +5593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="1:9">
+    <row r="41" spans="1:9" ht="16.5">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -6149,7 +5619,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" ht="16.5" spans="1:9">
+    <row r="42" spans="1:9" ht="16.5">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -6175,7 +5645,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" ht="16.5" spans="1:9">
+    <row r="43" spans="1:9" ht="16.5">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -6201,7 +5671,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" ht="16.5" spans="1:9">
+    <row r="44" spans="1:9" ht="16.5">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -6227,7 +5697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" ht="16.5" spans="1:9">
+    <row r="45" spans="1:9" ht="16.5">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -6253,7 +5723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" ht="16.5" spans="1:9">
+    <row r="46" spans="1:9" ht="16.5">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -6279,7 +5749,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" ht="16.5" spans="1:9">
+    <row r="47" spans="1:9" ht="16.5">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -6305,7 +5775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" ht="16.5" spans="1:9">
+    <row r="48" spans="1:9" ht="16.5">
       <c r="A48" s="15">
         <v>47</v>
       </c>
@@ -6331,7 +5801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" ht="16.5" spans="1:9">
+    <row r="49" spans="1:9" ht="16.5">
       <c r="A49" s="15">
         <v>48</v>
       </c>
@@ -6357,7 +5827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" ht="16.5" spans="1:9">
+    <row r="50" spans="1:9" ht="16.5">
       <c r="A50" s="15">
         <v>49</v>
       </c>
@@ -6383,7 +5853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" ht="16.5" spans="1:9">
+    <row r="51" spans="1:9" ht="16.5">
       <c r="A51" s="15">
         <v>50</v>
       </c>
@@ -6409,7 +5879,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" ht="16.5" spans="1:9">
+    <row r="52" spans="1:9" ht="16.5">
       <c r="A52" s="15">
         <v>51</v>
       </c>
@@ -6433,7 +5903,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" ht="24.75" customHeight="1" spans="1:9">
+    <row r="53" spans="1:9" ht="24.75" customHeight="1">
       <c r="A53" s="15">
         <v>52</v>
       </c>
@@ -6459,7 +5929,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" ht="16.5" spans="1:9">
+    <row r="54" spans="1:9" ht="16.5">
       <c r="A54" s="15">
         <v>53</v>
       </c>
@@ -6485,7 +5955,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" ht="16.5" spans="1:9">
+    <row r="55" spans="1:9" ht="16.5">
       <c r="A55" s="15">
         <v>54</v>
       </c>
@@ -6511,7 +5981,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" ht="16.5" spans="1:9">
+    <row r="56" spans="1:9" ht="16.5">
       <c r="A56" s="15">
         <v>55</v>
       </c>
@@ -6537,7 +6007,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" ht="16.5" spans="1:9">
+    <row r="57" spans="1:9" ht="16.5">
       <c r="A57" s="15">
         <v>56</v>
       </c>
@@ -6563,7 +6033,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" ht="16.5" spans="1:9">
+    <row r="58" spans="1:9" ht="16.5">
       <c r="A58" s="15">
         <v>57</v>
       </c>
@@ -6589,7 +6059,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" ht="16.5" spans="1:9">
+    <row r="59" spans="1:9" ht="16.5">
       <c r="A59" s="15">
         <v>58</v>
       </c>
@@ -6615,7 +6085,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" ht="16.5" spans="1:9">
+    <row r="60" spans="1:9" ht="16.5">
       <c r="A60" s="15">
         <v>59</v>
       </c>
@@ -6641,7 +6111,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="61" ht="16.5" spans="1:9">
+    <row r="61" spans="1:9" ht="16.5">
       <c r="A61" s="15">
         <v>60</v>
       </c>
@@ -6667,7 +6137,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" ht="16.5" spans="1:9">
+    <row r="62" spans="1:9" ht="16.5">
       <c r="A62" s="15">
         <v>61</v>
       </c>
@@ -6693,7 +6163,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" ht="16.5" spans="1:9">
+    <row r="63" spans="1:9" ht="16.5">
       <c r="A63" s="15">
         <v>62</v>
       </c>
@@ -6719,7 +6189,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="64" ht="16.5" spans="1:9">
+    <row r="64" spans="1:9" ht="16.5">
       <c r="A64" s="15">
         <v>63</v>
       </c>
@@ -6745,7 +6215,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" ht="16.5" spans="1:9">
+    <row r="65" spans="1:9" ht="16.5">
       <c r="A65" s="15">
         <v>64</v>
       </c>
@@ -6771,7 +6241,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="66" ht="16.5" spans="1:9">
+    <row r="66" spans="1:9" ht="16.5">
       <c r="A66" s="15">
         <v>65</v>
       </c>
@@ -6797,7 +6267,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" ht="16.5" spans="1:9">
+    <row r="67" spans="1:9" ht="16.5">
       <c r="A67" s="15">
         <v>66</v>
       </c>
@@ -6823,7 +6293,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" ht="16.5" spans="1:9">
+    <row r="68" spans="1:9" ht="16.5">
       <c r="A68" s="15">
         <v>67</v>
       </c>
@@ -6849,7 +6319,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" ht="16.5" spans="1:9">
+    <row r="69" spans="1:9" ht="16.5">
       <c r="A69" s="15">
         <v>68</v>
       </c>
@@ -6875,7 +6345,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" ht="16.5" spans="1:9">
+    <row r="70" spans="1:9" ht="16.5">
       <c r="A70" s="15">
         <v>69</v>
       </c>
@@ -6901,7 +6371,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" ht="16.5" spans="1:9">
+    <row r="71" spans="1:9" ht="16.5">
       <c r="A71" s="15">
         <v>70</v>
       </c>
@@ -6927,7 +6397,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" ht="16.5" spans="1:9">
+    <row r="72" spans="1:9" ht="16.5">
       <c r="A72" s="15">
         <v>71</v>
       </c>
@@ -6953,7 +6423,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" ht="16.5" spans="1:9">
+    <row r="73" spans="1:9" ht="16.5">
       <c r="A73" s="15">
         <v>72</v>
       </c>
@@ -6979,7 +6449,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" s="2" customFormat="1" ht="16.5" spans="1:9">
+    <row r="74" spans="1:9" s="2" customFormat="1" ht="16.5">
       <c r="A74" s="15">
         <v>73</v>
       </c>
@@ -7005,7 +6475,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" ht="16.5" spans="1:9">
+    <row r="75" spans="1:9" ht="16.5">
       <c r="A75" s="15">
         <v>74</v>
       </c>
@@ -7031,7 +6501,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" s="3" customFormat="1" ht="16.5" spans="1:9">
+    <row r="76" spans="1:9" s="3" customFormat="1" ht="16.5">
       <c r="A76" s="15">
         <v>75</v>
       </c>
@@ -7057,7 +6527,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="77" ht="16.5" spans="1:9">
+    <row r="77" spans="1:9" ht="16.5">
       <c r="A77" s="15">
         <v>76</v>
       </c>
@@ -7083,7 +6553,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" ht="16.5" spans="1:9">
+    <row r="78" spans="1:9" ht="16.5">
       <c r="A78" s="15">
         <v>77</v>
       </c>
@@ -7109,7 +6579,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" ht="16.5" spans="1:9">
+    <row r="79" spans="1:9" ht="16.5">
       <c r="A79" s="15">
         <v>78</v>
       </c>
@@ -7135,7 +6605,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="80" ht="16.5" spans="1:9">
+    <row r="80" spans="1:9" ht="16.5">
       <c r="A80" s="15">
         <v>79</v>
       </c>
@@ -7161,7 +6631,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="81" ht="16.5" spans="1:9">
+    <row r="81" spans="1:9" ht="16.5">
       <c r="A81" s="15">
         <v>80</v>
       </c>
@@ -7187,7 +6657,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="82" ht="16.5" spans="1:9">
+    <row r="82" spans="1:9" ht="16.5">
       <c r="A82" s="15">
         <v>81</v>
       </c>
@@ -7213,7 +6683,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="83" ht="16.5" spans="1:9">
+    <row r="83" spans="1:9" ht="16.5">
       <c r="A83" s="15">
         <v>82</v>
       </c>
@@ -7239,7 +6709,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" ht="16.5" spans="1:9">
+    <row r="84" spans="1:9" ht="16.5">
       <c r="A84" s="15">
         <v>83</v>
       </c>
@@ -7265,7 +6735,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="85" ht="16.5" spans="1:9">
+    <row r="85" spans="1:9" ht="16.5">
       <c r="A85" s="15">
         <v>84</v>
       </c>
@@ -7291,7 +6761,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" ht="16.5" spans="1:9">
+    <row r="86" spans="1:9" ht="16.5">
       <c r="A86" s="15">
         <v>85</v>
       </c>
@@ -7317,7 +6787,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" ht="16.5" spans="1:9">
+    <row r="87" spans="1:9" ht="16.5">
       <c r="A87" s="15">
         <v>86</v>
       </c>
@@ -7343,7 +6813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" ht="16.5" spans="1:9">
+    <row r="88" spans="1:9" ht="16.5">
       <c r="A88" s="15">
         <v>87</v>
       </c>
@@ -7369,7 +6839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" ht="16.5" spans="1:9">
+    <row r="89" spans="1:9" ht="16.5">
       <c r="A89" s="15">
         <v>88</v>
       </c>
@@ -7395,7 +6865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" ht="16.5" spans="1:9">
+    <row r="90" spans="1:9" ht="16.5">
       <c r="A90" s="15">
         <v>89</v>
       </c>
@@ -7421,7 +6891,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" ht="16.5" spans="1:9">
+    <row r="91" spans="1:9" ht="16.5">
       <c r="A91" s="15">
         <v>90</v>
       </c>
@@ -7447,7 +6917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" ht="16.5" spans="1:9">
+    <row r="92" spans="1:9" ht="16.5">
       <c r="A92" s="15">
         <v>91</v>
       </c>
@@ -7473,7 +6943,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" ht="16.5" spans="1:9">
+    <row r="93" spans="1:9" ht="16.5">
       <c r="A93" s="15">
         <v>92</v>
       </c>
@@ -7499,7 +6969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" ht="16.5" spans="1:9">
+    <row r="94" spans="1:9" ht="16.5">
       <c r="A94" s="15">
         <v>93</v>
       </c>
@@ -7525,7 +6995,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="95" ht="16.5" spans="1:9">
+    <row r="95" spans="1:9" ht="16.5">
       <c r="A95" s="15">
         <v>94</v>
       </c>
@@ -7551,7 +7021,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" ht="16.5" spans="1:9">
+    <row r="96" spans="1:9" ht="16.5">
       <c r="A96" s="15">
         <v>95</v>
       </c>
@@ -7577,7 +7047,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="97" ht="16.5" spans="1:9">
+    <row r="97" spans="1:9" ht="16.5">
       <c r="A97" s="15">
         <v>96</v>
       </c>
@@ -7603,7 +7073,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="98" ht="16.5" spans="1:9">
+    <row r="98" spans="1:9" ht="16.5">
       <c r="A98" s="15">
         <v>97</v>
       </c>
@@ -7629,7 +7099,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="99" ht="16.5" spans="1:9">
+    <row r="99" spans="1:9" ht="16.5">
       <c r="A99" s="15">
         <v>98</v>
       </c>
@@ -7655,7 +7125,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="100" ht="16.5" spans="1:9">
+    <row r="100" spans="1:9" ht="16.5">
       <c r="A100" s="15">
         <v>99</v>
       </c>
@@ -7681,7 +7151,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" ht="16.5" spans="1:9">
+    <row r="101" spans="1:9" ht="16.5">
       <c r="A101" s="15">
         <v>100</v>
       </c>
@@ -7707,7 +7177,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="102" ht="16.5" spans="1:9">
+    <row r="102" spans="1:9" ht="16.5">
       <c r="A102" s="15">
         <v>101</v>
       </c>
@@ -7733,7 +7203,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" ht="16.5" spans="1:9">
+    <row r="103" spans="1:9" ht="16.5">
       <c r="A103" s="15">
         <v>102</v>
       </c>
@@ -7759,7 +7229,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" ht="16.5" spans="1:9">
+    <row r="104" spans="1:9" ht="16.5">
       <c r="A104" s="15">
         <v>103</v>
       </c>
@@ -7785,7 +7255,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="105" ht="16.5" spans="1:9">
+    <row r="105" spans="1:9" ht="16.5">
       <c r="A105" s="15">
         <v>104</v>
       </c>
@@ -7811,7 +7281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" ht="16.5" spans="1:9">
+    <row r="106" spans="1:9" ht="16.5">
       <c r="A106" s="15">
         <v>105</v>
       </c>
@@ -7837,7 +7307,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="107" ht="16.5" spans="1:9">
+    <row r="107" spans="1:9" ht="16.5">
       <c r="A107" s="15">
         <v>106</v>
       </c>
@@ -7863,7 +7333,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="108" ht="16.5" spans="1:9">
+    <row r="108" spans="1:9" ht="16.5">
       <c r="A108" s="15">
         <v>107</v>
       </c>
@@ -7889,7 +7359,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="109" ht="16.5" spans="1:9">
+    <row r="109" spans="1:9" ht="16.5">
       <c r="A109" s="15">
         <v>108</v>
       </c>
@@ -7915,7 +7385,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="110" ht="16.5" spans="1:9">
+    <row r="110" spans="1:9" ht="16.5">
       <c r="A110" s="15">
         <v>109</v>
       </c>
@@ -7941,7 +7411,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="111" ht="16.5" spans="1:9">
+    <row r="111" spans="1:9" ht="16.5">
       <c r="A111" s="15">
         <v>110</v>
       </c>
@@ -7967,7 +7437,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="112" ht="16.5" spans="1:9">
+    <row r="112" spans="1:9" ht="16.5">
       <c r="A112" s="15">
         <v>111</v>
       </c>
@@ -7993,7 +7463,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="113" ht="16.5" spans="1:9">
+    <row r="113" spans="1:9" ht="16.5">
       <c r="A113" s="15">
         <v>112</v>
       </c>
@@ -8019,7 +7489,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" ht="16.5" spans="1:9">
+    <row r="114" spans="1:9" ht="16.5">
       <c r="A114" s="15">
         <v>113</v>
       </c>
@@ -8045,7 +7515,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="115" ht="16.5" spans="1:9">
+    <row r="115" spans="1:9" ht="16.5">
       <c r="A115" s="15">
         <v>114</v>
       </c>
@@ -8071,7 +7541,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="116" ht="16.5" spans="1:9">
+    <row r="116" spans="1:9" ht="16.5">
       <c r="A116" s="15">
         <v>115</v>
       </c>
@@ -8097,7 +7567,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="117" ht="16.5" spans="1:9">
+    <row r="117" spans="1:9" ht="16.5">
       <c r="A117" s="15">
         <v>116</v>
       </c>
@@ -8123,7 +7593,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="118" ht="16.5" spans="1:9">
+    <row r="118" spans="1:9" ht="16.5">
       <c r="A118" s="15">
         <v>117</v>
       </c>
@@ -8149,7 +7619,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="119" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="119" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A119" s="25">
         <v>118</v>
       </c>
@@ -8175,7 +7645,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="120" ht="16.5" spans="1:9">
+    <row r="120" spans="1:9" ht="16.5">
       <c r="A120" s="15">
         <v>119</v>
       </c>
@@ -8201,7 +7671,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="121" ht="16.5" spans="1:9">
+    <row r="121" spans="1:9" ht="16.5">
       <c r="A121" s="15">
         <v>120</v>
       </c>
@@ -8227,7 +7697,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="122" ht="16.5" spans="1:9">
+    <row r="122" spans="1:9" ht="16.5">
       <c r="A122" s="15">
         <v>121</v>
       </c>
@@ -8253,7 +7723,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="123" ht="16.5" spans="1:9">
+    <row r="123" spans="1:9" ht="16.5">
       <c r="A123" s="15">
         <v>122</v>
       </c>
@@ -8279,7 +7749,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="124" ht="16.5" spans="1:9">
+    <row r="124" spans="1:9" ht="16.5">
       <c r="A124" s="15">
         <v>123</v>
       </c>
@@ -8305,7 +7775,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="125" ht="16.5" spans="1:9">
+    <row r="125" spans="1:9" ht="16.5">
       <c r="A125" s="15">
         <v>124</v>
       </c>
@@ -8331,7 +7801,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="126" ht="16.5" spans="1:9">
+    <row r="126" spans="1:9" ht="16.5">
       <c r="A126" s="15">
         <v>125</v>
       </c>
@@ -8357,7 +7827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" ht="16.5" spans="1:9">
+    <row r="127" spans="1:9" ht="16.5">
       <c r="A127" s="15">
         <v>126</v>
       </c>
@@ -8383,7 +7853,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="128" ht="16.5" spans="1:9">
+    <row r="128" spans="1:9" ht="16.5">
       <c r="A128" s="15">
         <v>127</v>
       </c>
@@ -8409,7 +7879,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="129" ht="16.5" spans="1:9">
+    <row r="129" spans="1:9" ht="16.5">
       <c r="A129" s="15">
         <v>128</v>
       </c>
@@ -8435,7 +7905,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="130" ht="16.5" spans="1:9">
+    <row r="130" spans="1:9" ht="16.5">
       <c r="A130" s="15">
         <v>129</v>
       </c>
@@ -8461,7 +7931,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="131" ht="16.5" spans="1:9">
+    <row r="131" spans="1:9" ht="16.5">
       <c r="A131" s="15">
         <v>130</v>
       </c>
@@ -8487,7 +7957,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="132" ht="16.5" spans="1:9">
+    <row r="132" spans="1:9" ht="16.5">
       <c r="A132" s="15">
         <v>131</v>
       </c>
@@ -8513,7 +7983,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="133" ht="16.5" spans="1:9">
+    <row r="133" spans="1:9" ht="16.5">
       <c r="A133" s="15">
         <v>132</v>
       </c>
@@ -8539,7 +8009,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="134" ht="16.5" spans="1:9">
+    <row r="134" spans="1:9" ht="16.5">
       <c r="A134" s="15">
         <v>133</v>
       </c>
@@ -8565,7 +8035,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="135" ht="16.5" spans="1:9">
+    <row r="135" spans="1:9" ht="16.5">
       <c r="A135" s="15">
         <v>134</v>
       </c>
@@ -8591,7 +8061,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="136" ht="16.5" spans="1:9">
+    <row r="136" spans="1:9" ht="16.5">
       <c r="A136" s="15">
         <v>135</v>
       </c>
@@ -8617,7 +8087,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="137" ht="16.5" spans="1:9">
+    <row r="137" spans="1:9" ht="16.5">
       <c r="A137" s="15">
         <v>136</v>
       </c>
@@ -8643,7 +8113,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="138" ht="16.5" spans="1:9">
+    <row r="138" spans="1:9" ht="16.5">
       <c r="A138" s="15">
         <v>137</v>
       </c>
@@ -8669,7 +8139,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="139" ht="16.5" spans="1:9">
+    <row r="139" spans="1:9" ht="16.5">
       <c r="A139" s="15">
         <v>138</v>
       </c>
@@ -8695,7 +8165,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="140" ht="16.5" spans="1:9">
+    <row r="140" spans="1:9" ht="16.5">
       <c r="A140" s="15">
         <v>139</v>
       </c>
@@ -8721,7 +8191,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="141" ht="16.5" spans="1:9">
+    <row r="141" spans="1:9" ht="16.5">
       <c r="A141" s="15">
         <v>140</v>
       </c>
@@ -8747,7 +8217,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="142" ht="16.5" spans="1:9">
+    <row r="142" spans="1:9" ht="16.5">
       <c r="A142" s="15">
         <v>141</v>
       </c>
@@ -8773,7 +8243,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" ht="16.5" spans="1:9">
+    <row r="143" spans="1:9" ht="16.5">
       <c r="A143" s="15">
         <v>142</v>
       </c>
@@ -8799,7 +8269,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" ht="16.5" spans="1:9">
+    <row r="144" spans="1:9" ht="16.5">
       <c r="A144" s="15">
         <v>143</v>
       </c>
@@ -8825,7 +8295,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" ht="16.5" spans="1:9">
+    <row r="145" spans="1:9" ht="16.5">
       <c r="A145" s="15">
         <v>144</v>
       </c>
@@ -8851,7 +8321,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="146" ht="16.5" spans="1:9">
+    <row r="146" spans="1:9" ht="16.5">
       <c r="A146" s="15">
         <v>145</v>
       </c>
@@ -8877,7 +8347,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="147" ht="16.5" spans="1:9">
+    <row r="147" spans="1:9" ht="16.5">
       <c r="A147" s="15">
         <v>146</v>
       </c>
@@ -8903,7 +8373,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="148" ht="16.5" spans="1:9">
+    <row r="148" spans="1:9" ht="16.5">
       <c r="A148" s="15">
         <v>147</v>
       </c>
@@ -8929,7 +8399,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="149" ht="16.5" spans="1:9">
+    <row r="149" spans="1:9" ht="16.5">
       <c r="A149" s="15">
         <v>148</v>
       </c>
@@ -8955,7 +8425,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="150" ht="16.5" spans="1:9">
+    <row r="150" spans="1:9" ht="16.5">
       <c r="A150" s="15">
         <v>149</v>
       </c>
@@ -8981,7 +8451,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="151" ht="16.5" spans="1:9">
+    <row r="151" spans="1:9" ht="16.5">
       <c r="A151" s="15">
         <v>150</v>
       </c>
@@ -9007,7 +8477,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="152" ht="16.5" spans="1:9">
+    <row r="152" spans="1:9" ht="16.5">
       <c r="A152" s="15">
         <v>151</v>
       </c>
@@ -9033,7 +8503,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="153" ht="16.5" spans="1:9">
+    <row r="153" spans="1:9" ht="16.5">
       <c r="A153" s="15">
         <v>152</v>
       </c>
@@ -9059,7 +8529,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="154" ht="16.5" spans="1:9">
+    <row r="154" spans="1:9" ht="16.5">
       <c r="A154" s="15">
         <v>153</v>
       </c>
@@ -9085,7 +8555,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="155" ht="16.5" spans="1:9">
+    <row r="155" spans="1:9" ht="16.5">
       <c r="A155" s="15">
         <v>154</v>
       </c>
@@ -9111,7 +8581,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="156" ht="16.5" spans="1:9">
+    <row r="156" spans="1:9" ht="16.5">
       <c r="A156" s="15">
         <v>155</v>
       </c>
@@ -9137,7 +8607,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="157" ht="16.5" spans="1:9">
+    <row r="157" spans="1:9" ht="16.5">
       <c r="A157" s="15">
         <v>156</v>
       </c>
@@ -9163,7 +8633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" ht="16.5" spans="1:9">
+    <row r="158" spans="1:9" ht="16.5">
       <c r="A158" s="15">
         <v>157</v>
       </c>
@@ -9189,7 +8659,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="159" ht="16.5" spans="1:9">
+    <row r="159" spans="1:9" ht="16.5">
       <c r="A159" s="15">
         <v>158</v>
       </c>
@@ -9215,7 +8685,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="160" ht="16.5" spans="1:9">
+    <row r="160" spans="1:9" ht="16.5">
       <c r="A160" s="15">
         <v>159</v>
       </c>
@@ -9241,7 +8711,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="161" ht="16.5" spans="1:9">
+    <row r="161" spans="1:9" ht="16.5">
       <c r="A161" s="15">
         <v>160</v>
       </c>
@@ -9267,7 +8737,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="162" ht="16.5" spans="1:9">
+    <row r="162" spans="1:9" ht="16.5">
       <c r="A162" s="15">
         <v>161</v>
       </c>
@@ -9293,7 +8763,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" ht="16.5" spans="1:9">
+    <row r="163" spans="1:9" ht="16.5">
       <c r="A163" s="15">
         <v>162</v>
       </c>
@@ -9319,7 +8789,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="164" ht="16.5" spans="1:9">
+    <row r="164" spans="1:9" ht="16.5">
       <c r="A164" s="15">
         <v>163</v>
       </c>
@@ -9345,7 +8815,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" ht="16.5" spans="1:9">
+    <row r="165" spans="1:9" ht="16.5">
       <c r="A165" s="15">
         <v>164</v>
       </c>
@@ -9371,7 +8841,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="166" ht="16.5" spans="1:9">
+    <row r="166" spans="1:9" ht="16.5">
       <c r="A166" s="15">
         <v>165</v>
       </c>
@@ -9397,7 +8867,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" ht="16.5" spans="1:9">
+    <row r="167" spans="1:9" ht="16.5">
       <c r="A167" s="15">
         <v>166</v>
       </c>
@@ -9423,7 +8893,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="168" ht="16.5" spans="1:9">
+    <row r="168" spans="1:9" ht="16.5">
       <c r="A168" s="15">
         <v>167</v>
       </c>
@@ -9449,7 +8919,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="169" ht="16.5" spans="1:9">
+    <row r="169" spans="1:9" ht="16.5">
       <c r="A169" s="15">
         <v>168</v>
       </c>
@@ -9473,7 +8943,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" ht="16.5" spans="1:9">
+    <row r="170" spans="1:9" ht="16.5">
       <c r="A170" s="15">
         <v>169</v>
       </c>
@@ -9497,7 +8967,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" ht="16.5" spans="1:9">
+    <row r="171" spans="1:9" ht="16.5">
       <c r="A171" s="15">
         <v>170</v>
       </c>
@@ -9521,7 +8991,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="172" ht="16.5" spans="1:9">
+    <row r="172" spans="1:9" ht="16.5">
       <c r="A172" s="15">
         <v>171</v>
       </c>
@@ -9545,7 +9015,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" ht="16.5" spans="1:9">
+    <row r="173" spans="1:9" ht="16.5">
       <c r="A173" s="15">
         <v>172</v>
       </c>
@@ -9571,7 +9041,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="174" ht="16.5" spans="1:9">
+    <row r="174" spans="1:9" ht="16.5">
       <c r="A174" s="15">
         <v>173</v>
       </c>
@@ -9595,7 +9065,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="175" ht="16.5" spans="1:9">
+    <row r="175" spans="1:9" ht="16.5">
       <c r="A175" s="15">
         <v>174</v>
       </c>
@@ -9619,7 +9089,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" ht="16.5" spans="1:9">
+    <row r="176" spans="1:9" ht="16.5">
       <c r="A176" s="15">
         <v>175</v>
       </c>
@@ -9643,7 +9113,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="177" ht="16.5" spans="1:9">
+    <row r="177" spans="1:9" ht="16.5">
       <c r="A177" s="15">
         <v>176</v>
       </c>
@@ -9669,7 +9139,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" ht="16.5" spans="1:9">
+    <row r="178" spans="1:9" ht="16.5">
       <c r="A178" s="15">
         <v>177</v>
       </c>
@@ -9695,7 +9165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" ht="16.5" spans="1:9">
+    <row r="179" spans="1:9" ht="16.5">
       <c r="A179" s="15">
         <v>178</v>
       </c>
@@ -9719,7 +9189,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="180" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="180" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A180" s="15">
         <v>179</v>
       </c>
@@ -9743,7 +9213,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="181" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="181" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A181" s="15">
         <v>180</v>
       </c>
@@ -9767,7 +9237,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="182" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="182" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A182" s="15">
         <v>181</v>
       </c>
@@ -9791,7 +9261,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="183" ht="16.5" spans="1:9">
+    <row r="183" spans="1:9" ht="16.5">
       <c r="A183" s="15">
         <v>182</v>
       </c>
@@ -9814,7 +9284,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="184" ht="16.5" spans="1:9">
+    <row r="184" spans="1:9" ht="16.5">
       <c r="A184" s="15">
         <v>183</v>
       </c>
@@ -9837,7 +9307,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="185" ht="16.5" spans="1:9">
+    <row r="185" spans="1:9" ht="16.5">
       <c r="A185" s="15">
         <v>184</v>
       </c>
@@ -9860,7 +9330,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="186" ht="16.5" spans="1:9">
+    <row r="186" spans="1:9" ht="16.5">
       <c r="A186" s="15">
         <v>185</v>
       </c>
@@ -9883,7 +9353,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="187" ht="16.5" spans="1:9">
+    <row r="187" spans="1:9" ht="16.5">
       <c r="A187" s="15">
         <v>186</v>
       </c>
@@ -9906,7 +9376,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="188" ht="16.5" spans="1:9">
+    <row r="188" spans="1:9" ht="16.5">
       <c r="A188" s="15">
         <v>187</v>
       </c>
@@ -9929,7 +9399,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="189" ht="16.5" spans="1:9">
+    <row r="189" spans="1:9" ht="16.5">
       <c r="A189" s="15">
         <v>188</v>
       </c>
@@ -9952,7 +9422,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="190" ht="16.5" spans="1:9">
+    <row r="190" spans="1:9" ht="16.5">
       <c r="A190" s="15">
         <v>189</v>
       </c>
@@ -9975,7 +9445,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="191" ht="16.5" spans="1:9">
+    <row r="191" spans="1:9" ht="16.5">
       <c r="A191" s="15">
         <v>190</v>
       </c>
@@ -9998,7 +9468,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="192" ht="16.5" spans="1:9">
+    <row r="192" spans="1:9" ht="16.5">
       <c r="A192" s="15">
         <v>191</v>
       </c>
@@ -10021,7 +9491,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="193" ht="16.5" spans="1:9">
+    <row r="193" spans="1:9" ht="16.5">
       <c r="A193" s="15">
         <v>192</v>
       </c>
@@ -10044,7 +9514,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="194" ht="16.5" spans="1:9">
+    <row r="194" spans="1:9" ht="16.5">
       <c r="A194" s="15">
         <v>193</v>
       </c>
@@ -10067,7 +9537,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="195" ht="16.5" spans="1:9">
+    <row r="195" spans="1:9" ht="16.5">
       <c r="A195" s="15">
         <v>194</v>
       </c>
@@ -10090,7 +9560,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="196" ht="16.5" spans="1:9">
+    <row r="196" spans="1:9" ht="16.5">
       <c r="A196" s="15">
         <v>195</v>
       </c>
@@ -10113,7 +9583,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="197" ht="16.5" spans="1:9">
+    <row r="197" spans="1:9" ht="16.5">
       <c r="A197" s="15">
         <v>196</v>
       </c>
@@ -10136,7 +9606,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="198" ht="16.5" spans="1:9">
+    <row r="198" spans="1:9" ht="16.5">
       <c r="A198" s="15">
         <v>197</v>
       </c>
@@ -10159,7 +9629,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="199" ht="16.5" spans="1:9">
+    <row r="199" spans="1:9" ht="16.5">
       <c r="A199" s="15">
         <v>198</v>
       </c>
@@ -10182,7 +9652,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="200" ht="16.5" spans="1:9">
+    <row r="200" spans="1:9" ht="16.5">
       <c r="A200" s="15">
         <v>199</v>
       </c>
@@ -10205,7 +9675,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="201" ht="16.5" spans="1:9">
+    <row r="201" spans="1:9" ht="16.5">
       <c r="A201" s="15">
         <v>200</v>
       </c>
@@ -10228,7 +9698,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="202" ht="16.5" spans="1:9">
+    <row r="202" spans="1:9" ht="16.5">
       <c r="A202" s="15">
         <v>201</v>
       </c>
@@ -10251,7 +9721,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="203" ht="16.5" spans="1:9">
+    <row r="203" spans="1:9" ht="16.5">
       <c r="A203" s="15">
         <v>202</v>
       </c>
@@ -10274,7 +9744,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="204" ht="16.5" spans="1:9">
+    <row r="204" spans="1:9" ht="16.5">
       <c r="A204" s="15">
         <v>203</v>
       </c>
@@ -10300,7 +9770,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" ht="16.5" spans="1:9">
+    <row r="205" spans="1:9" ht="16.5">
       <c r="A205" s="15">
         <v>204</v>
       </c>
@@ -10326,7 +9796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" ht="16.5" spans="1:9">
+    <row r="206" spans="1:9" ht="16.5">
       <c r="A206" s="15">
         <v>205</v>
       </c>
@@ -10352,7 +9822,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="207" ht="16.5" spans="1:9">
+    <row r="207" spans="1:9" ht="16.5">
       <c r="A207" s="15">
         <v>206</v>
       </c>
@@ -10375,7 +9845,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="208" ht="16.5" spans="1:9">
+    <row r="208" spans="1:9" ht="16.5">
       <c r="A208" s="15">
         <v>207</v>
       </c>
@@ -10398,7 +9868,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="209" ht="16.5" spans="1:9">
+    <row r="209" spans="1:9" ht="16.5">
       <c r="A209" s="15">
         <v>208</v>
       </c>
@@ -10421,7 +9891,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="210" ht="16.5" spans="1:9">
+    <row r="210" spans="1:9" ht="16.5">
       <c r="A210" s="15">
         <v>209</v>
       </c>
@@ -10444,7 +9914,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="211" ht="16.5" spans="1:9">
+    <row r="211" spans="1:9" ht="16.5">
       <c r="A211" s="15">
         <v>210</v>
       </c>
@@ -10467,7 +9937,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="212" ht="16.5" spans="1:9">
+    <row r="212" spans="1:9" ht="16.5">
       <c r="A212" s="15">
         <v>211</v>
       </c>
@@ -10490,7 +9960,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="213" ht="16.5" spans="1:9">
+    <row r="213" spans="1:9" ht="16.5">
       <c r="A213" s="15">
         <v>212</v>
       </c>
@@ -10513,7 +9983,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="214" ht="16.5" spans="1:9">
+    <row r="214" spans="1:9" ht="16.5">
       <c r="A214" s="15">
         <v>213</v>
       </c>
@@ -10536,7 +10006,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="215" ht="16.5" spans="1:9">
+    <row r="215" spans="1:9" ht="16.5">
       <c r="A215" s="15">
         <v>214</v>
       </c>
@@ -10559,7 +10029,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="216" ht="16.5" spans="1:9">
+    <row r="216" spans="1:9" ht="16.5">
       <c r="A216" s="15">
         <v>215</v>
       </c>
@@ -10582,7 +10052,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="217" ht="16.5" spans="1:9">
+    <row r="217" spans="1:9" ht="16.5">
       <c r="A217" s="15">
         <v>216</v>
       </c>
@@ -10605,7 +10075,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="218" ht="16.5" spans="1:9">
+    <row r="218" spans="1:9" ht="16.5">
       <c r="A218" s="15">
         <v>217</v>
       </c>
@@ -10628,7 +10098,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="219" ht="16.5" spans="1:9">
+    <row r="219" spans="1:9" ht="16.5">
       <c r="A219" s="15">
         <v>218</v>
       </c>
@@ -10651,7 +10121,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="220" ht="16.5" spans="1:9">
+    <row r="220" spans="1:9" ht="16.5">
       <c r="A220" s="15">
         <v>219</v>
       </c>
@@ -10674,7 +10144,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="221" ht="16.5" spans="1:9">
+    <row r="221" spans="1:9" ht="16.5">
       <c r="A221" s="15">
         <v>220</v>
       </c>
@@ -10697,7 +10167,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="222" ht="16.5" spans="1:9">
+    <row r="222" spans="1:9" ht="16.5">
       <c r="A222" s="15">
         <v>221</v>
       </c>
@@ -10720,7 +10190,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="223" ht="16.5" spans="1:9">
+    <row r="223" spans="1:9" ht="16.5">
       <c r="A223" s="15">
         <v>222</v>
       </c>
@@ -10743,7 +10213,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="224" ht="16.5" spans="1:9">
+    <row r="224" spans="1:9" ht="16.5">
       <c r="A224" s="15">
         <v>223</v>
       </c>
@@ -10766,7 +10236,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="225" ht="16.5" spans="1:9">
+    <row r="225" spans="1:9" ht="16.5">
       <c r="A225" s="15">
         <v>224</v>
       </c>
@@ -10789,7 +10259,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="226" ht="16.5" spans="1:7">
+    <row r="226" spans="1:9" ht="16.5">
       <c r="A226" s="15">
         <v>225</v>
       </c>
@@ -10812,7 +10282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" ht="16.5" spans="1:7">
+    <row r="227" spans="1:9" ht="16.5">
       <c r="A227" s="15">
         <v>226</v>
       </c>
@@ -10835,7 +10305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" ht="16.5" spans="1:7">
+    <row r="228" spans="1:9" ht="16.5">
       <c r="A228" s="15">
         <v>227</v>
       </c>
@@ -10858,7 +10328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" ht="16.5" spans="1:7">
+    <row r="229" spans="1:9" ht="16.5">
       <c r="A229" s="15">
         <v>228</v>
       </c>
@@ -10881,7 +10351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" ht="16.5" spans="1:7">
+    <row r="230" spans="1:9" ht="16.5">
       <c r="A230" s="15">
         <v>229</v>
       </c>
@@ -10904,7 +10374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" ht="16.5" spans="1:7">
+    <row r="231" spans="1:9" ht="16.5">
       <c r="A231" s="15">
         <v>230</v>
       </c>
@@ -10927,7 +10397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" ht="16.5" spans="1:7">
+    <row r="232" spans="1:9" ht="16.5">
       <c r="A232" s="15">
         <v>231</v>
       </c>
@@ -10950,7 +10420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" ht="16.5" spans="1:7">
+    <row r="233" spans="1:9" ht="16.5">
       <c r="A233" s="15">
         <v>232</v>
       </c>
@@ -10973,7 +10443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" ht="16.5" spans="1:7">
+    <row r="234" spans="1:9" ht="16.5">
       <c r="A234" s="15">
         <v>233</v>
       </c>
@@ -10996,7 +10466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" ht="16.5" spans="1:9">
+    <row r="235" spans="1:9" ht="16.5">
       <c r="A235" s="15">
         <v>234</v>
       </c>
@@ -11022,7 +10492,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="236" ht="16.5" spans="1:9">
+    <row r="236" spans="1:9" ht="16.5">
       <c r="A236" s="15">
         <v>235</v>
       </c>
@@ -11048,7 +10518,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="237" ht="16.5" spans="1:9">
+    <row r="237" spans="1:9" ht="16.5">
       <c r="A237" s="15">
         <v>236</v>
       </c>
@@ -11074,7 +10544,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="238" ht="16.5" spans="1:9">
+    <row r="238" spans="1:9" ht="16.5">
       <c r="A238" s="15">
         <v>237</v>
       </c>
@@ -11100,7 +10570,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="239" ht="16.5" spans="1:9">
+    <row r="239" spans="1:9" ht="16.5">
       <c r="A239" s="15">
         <v>238</v>
       </c>
@@ -11126,7 +10596,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="240" ht="16.5" spans="1:9">
+    <row r="240" spans="1:9" ht="16.5">
       <c r="A240" s="15">
         <v>239</v>
       </c>
@@ -11152,7 +10622,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="241" ht="16.5" spans="1:9">
+    <row r="241" spans="1:9" ht="16.5">
       <c r="A241" s="15">
         <v>240</v>
       </c>
@@ -11178,7 +10648,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="242" ht="16.5" spans="1:9">
+    <row r="242" spans="1:9" ht="16.5">
       <c r="A242" s="15">
         <v>241</v>
       </c>
@@ -11204,7 +10674,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="243" ht="16.5" spans="1:9">
+    <row r="243" spans="1:9" ht="16.5">
       <c r="A243" s="15">
         <v>242</v>
       </c>
@@ -11230,7 +10700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="244" ht="16.5" spans="1:9">
+    <row r="244" spans="1:9" ht="16.5">
       <c r="A244" s="15">
         <v>243</v>
       </c>
@@ -11256,7 +10726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="245" ht="16.5" spans="1:9">
+    <row r="245" spans="1:9" ht="16.5">
       <c r="A245" s="15">
         <v>244</v>
       </c>
@@ -11282,7 +10752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="246" ht="16.5" spans="1:9">
+    <row r="246" spans="1:9" ht="16.5">
       <c r="A246" s="15">
         <v>245</v>
       </c>
@@ -11308,7 +10778,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="247" ht="16.5" spans="1:9">
+    <row r="247" spans="1:9" ht="16.5">
       <c r="A247" s="15">
         <v>246</v>
       </c>
@@ -11334,7 +10804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="248" ht="16.5" spans="1:9">
+    <row r="248" spans="1:9" ht="16.5">
       <c r="A248" s="15">
         <v>247</v>
       </c>
@@ -11360,7 +10830,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="249" ht="16.5" spans="1:9">
+    <row r="249" spans="1:9" ht="16.5">
       <c r="A249" s="15">
         <v>248</v>
       </c>
@@ -11386,7 +10856,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="250" ht="16.5" spans="1:9">
+    <row r="250" spans="1:9" ht="16.5">
       <c r="A250" s="15">
         <v>249</v>
       </c>
@@ -11412,7 +10882,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="251" ht="16.5" spans="1:9">
+    <row r="251" spans="1:9" ht="16.5">
       <c r="A251" s="15">
         <v>250</v>
       </c>
@@ -11438,7 +10908,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="252" ht="16.5" spans="1:9">
+    <row r="252" spans="1:9" ht="16.5">
       <c r="A252" s="15">
         <v>251</v>
       </c>
@@ -11464,7 +10934,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="253" ht="16.5" spans="1:9">
+    <row r="253" spans="1:9" ht="16.5">
       <c r="A253" s="15">
         <v>252</v>
       </c>
@@ -11491,7 +10961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="254" ht="16.5" spans="1:9">
+    <row r="254" spans="1:9" ht="16.5">
       <c r="A254" s="15">
         <v>253</v>
       </c>
@@ -11517,7 +10987,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="255" ht="16.5" spans="1:9">
+    <row r="255" spans="1:9" ht="16.5">
       <c r="A255" s="15">
         <v>254</v>
       </c>
@@ -11543,7 +11013,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" s="3" customFormat="1" ht="16.5" spans="1:9">
+    <row r="256" spans="1:9" s="3" customFormat="1" ht="16.5">
       <c r="A256" s="15">
         <v>255</v>
       </c>
@@ -11570,7 +11040,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="257" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="257" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A257" s="15">
         <v>256</v>
       </c>
@@ -11596,7 +11066,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="258" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="258" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A258" s="15">
         <v>257</v>
       </c>
@@ -11622,7 +11092,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="259" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="259" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A259" s="15">
         <v>258</v>
       </c>
@@ -11648,7 +11118,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="260" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A260" s="15">
         <v>259</v>
       </c>
@@ -11674,7 +11144,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="261" ht="16.5" spans="1:9">
+    <row r="261" spans="1:9" ht="16.5">
       <c r="A261" s="15">
         <v>260</v>
       </c>
@@ -11700,7 +11170,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="262" ht="16.5" spans="1:9">
+    <row r="262" spans="1:9" ht="16.5">
       <c r="A262" s="15">
         <v>261</v>
       </c>
@@ -11726,7 +11196,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="263" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A263" s="15">
         <v>262</v>
       </c>
@@ -11752,7 +11222,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="264" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="264" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A264" s="15">
         <v>263</v>
       </c>
@@ -11778,7 +11248,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="265" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A265" s="15">
         <v>264</v>
       </c>
@@ -11804,7 +11274,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="266" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="266" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A266" s="15">
         <v>265</v>
       </c>
@@ -11830,7 +11300,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="267" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="267" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A267" s="15">
         <v>266</v>
       </c>
@@ -11856,7 +11326,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="268" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="268" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A268" s="25">
         <v>267</v>
       </c>
@@ -11882,7 +11352,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="269" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="269" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A269" s="15">
         <v>268</v>
       </c>
@@ -11908,7 +11378,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="270" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="270" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A270" s="15">
         <v>269</v>
       </c>
@@ -11934,7 +11404,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="271" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="271" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A271" s="15">
         <v>270</v>
       </c>
@@ -11960,7 +11430,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="272" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="272" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A272" s="15">
         <v>271</v>
       </c>
@@ -11986,7 +11456,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="273" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="273" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A273" s="15">
         <v>272</v>
       </c>
@@ -12012,7 +11482,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="274" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="274" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A274" s="15">
         <v>273</v>
       </c>
@@ -12038,7 +11508,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="275" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A275" s="15">
         <v>274</v>
       </c>
@@ -12064,7 +11534,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="276" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="276" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A276" s="36">
         <v>275</v>
       </c>
@@ -12087,7 +11557,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="277" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="277" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A277" s="15">
         <v>276</v>
       </c>
@@ -12113,7 +11583,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="278" ht="16.5" spans="1:9">
+    <row r="278" spans="1:9" ht="16.5">
       <c r="A278" s="15">
         <v>277</v>
       </c>
@@ -12139,7 +11609,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="279" ht="16.5" spans="1:9">
+    <row r="279" spans="1:9" ht="16.5">
       <c r="A279" s="15">
         <v>278</v>
       </c>
@@ -12162,7 +11632,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="280" ht="16.5" spans="1:9">
+    <row r="280" spans="1:9" ht="16.5">
       <c r="A280" s="15">
         <v>279</v>
       </c>
@@ -12188,7 +11658,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="281" ht="16.5" spans="1:9">
+    <row r="281" spans="1:9" ht="16.5">
       <c r="A281" s="15">
         <v>280</v>
       </c>
@@ -12214,7 +11684,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="282" ht="16.5" spans="1:9">
+    <row r="282" spans="1:9" ht="16.5">
       <c r="A282" s="15">
         <v>281</v>
       </c>
@@ -12240,7 +11710,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="283" ht="16.5" spans="1:9">
+    <row r="283" spans="1:9" ht="16.5">
       <c r="A283" s="15">
         <v>282</v>
       </c>
@@ -12266,7 +11736,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" s="7" customFormat="1" ht="16.5" spans="1:9">
+    <row r="284" spans="1:9" s="7" customFormat="1" ht="16.5">
       <c r="A284" s="15">
         <v>283</v>
       </c>
@@ -12292,7 +11762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="285" s="7" customFormat="1" ht="16.5" spans="1:9">
+    <row r="285" spans="1:9" s="7" customFormat="1" ht="16.5">
       <c r="A285" s="15">
         <v>284</v>
       </c>
@@ -12318,7 +11788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" s="7" customFormat="1" ht="16.5" spans="1:9">
+    <row r="286" spans="1:9" s="7" customFormat="1" ht="16.5">
       <c r="A286" s="15">
         <v>285</v>
       </c>
@@ -12344,7 +11814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" s="8" customFormat="1" ht="16.5" spans="1:9">
+    <row r="287" spans="1:9" s="8" customFormat="1" ht="16.5">
       <c r="A287" s="15">
         <v>286</v>
       </c>
@@ -12370,7 +11840,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="288" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A288" s="36">
         <v>287</v>
       </c>
@@ -12396,7 +11866,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="289" ht="16.5" spans="1:9">
+    <row r="289" spans="1:36" ht="16.5">
       <c r="A289" s="15">
         <v>288</v>
       </c>
@@ -12422,7 +11892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" s="9" customFormat="1" ht="16.5" spans="1:9">
+    <row r="290" spans="1:36" s="9" customFormat="1" ht="16.5">
       <c r="A290" s="15">
         <v>289</v>
       </c>
@@ -12448,7 +11918,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" s="9" customFormat="1" ht="16.5" spans="1:9">
+    <row r="291" spans="1:36" s="9" customFormat="1" ht="16.5">
       <c r="A291" s="15">
         <v>290</v>
       </c>
@@ -12474,7 +11944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="292" ht="16.5" spans="1:9">
+    <row r="292" spans="1:36" ht="16.5">
       <c r="A292" s="15">
         <v>291</v>
       </c>
@@ -12500,7 +11970,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="293" ht="16.5" spans="1:9">
+    <row r="293" spans="1:36" ht="16.5">
       <c r="A293" s="15">
         <v>292</v>
       </c>
@@ -12526,7 +11996,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="294" ht="16.5" spans="1:9">
+    <row r="294" spans="1:36" ht="16.5">
       <c r="A294" s="15">
         <v>293</v>
       </c>
@@ -12553,7 +12023,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="295" s="10" customFormat="1" ht="16.5" spans="1:36">
+    <row r="295" spans="1:36" s="10" customFormat="1" ht="16.5">
       <c r="A295" s="15">
         <v>294</v>
       </c>
@@ -12607,7 +12077,7 @@
       <c r="AI295" s="5"/>
       <c r="AJ295" s="5"/>
     </row>
-    <row r="296" s="10" customFormat="1" ht="16.5" spans="1:36">
+    <row r="296" spans="1:36" s="10" customFormat="1" ht="16.5">
       <c r="A296" s="15">
         <v>295</v>
       </c>
@@ -12661,7 +12131,7 @@
       <c r="AI296" s="5"/>
       <c r="AJ296" s="5"/>
     </row>
-    <row r="297" s="10" customFormat="1" ht="16.5" spans="1:36">
+    <row r="297" spans="1:36" s="10" customFormat="1" ht="16.5">
       <c r="A297" s="15">
         <v>296</v>
       </c>
@@ -12715,7 +12185,7 @@
       <c r="AI297" s="5"/>
       <c r="AJ297" s="5"/>
     </row>
-    <row r="298" ht="16.5" spans="1:36">
+    <row r="298" spans="1:36" ht="16.5">
       <c r="A298" s="15">
         <v>297</v>
       </c>
@@ -12769,7 +12239,7 @@
       <c r="AI298" s="5"/>
       <c r="AJ298" s="5"/>
     </row>
-    <row r="299" s="11" customFormat="1" ht="16.5" spans="1:36">
+    <row r="299" spans="1:36" s="11" customFormat="1" ht="16.5">
       <c r="A299" s="15">
         <v>298</v>
       </c>
@@ -12823,7 +12293,7 @@
       <c r="AI299" s="5"/>
       <c r="AJ299" s="5"/>
     </row>
-    <row r="300" ht="16.5" spans="1:9">
+    <row r="300" spans="1:36" ht="16.5">
       <c r="A300" s="15">
         <v>299</v>
       </c>
@@ -12850,7 +12320,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="301" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="301" spans="1:36" s="5" customFormat="1" ht="16.5">
       <c r="A301" s="15">
         <v>300</v>
       </c>
@@ -12877,7 +12347,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="302" ht="16.5" spans="1:9">
+    <row r="302" spans="1:36" ht="16.5">
       <c r="A302" s="15">
         <v>301</v>
       </c>
@@ -12904,7 +12374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" ht="16.5" spans="1:9">
+    <row r="303" spans="1:36" ht="16.5">
       <c r="A303" s="15">
         <v>302</v>
       </c>
@@ -12931,7 +12401,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="304" ht="16.5" spans="1:9">
+    <row r="304" spans="1:36" ht="16.5">
       <c r="A304" s="15">
         <v>303</v>
       </c>
@@ -12958,7 +12428,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="305" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="305" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A305" s="15">
         <v>304</v>
       </c>
@@ -12972,19 +12442,19 @@
         <v>888</v>
       </c>
       <c r="E305" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F305" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G305" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I305" s="32" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="306" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="306" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A306" s="15">
         <v>305</v>
       </c>
@@ -13010,7 +12480,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="307" ht="16.5" spans="1:7">
+    <row r="307" spans="1:9" ht="16.5">
       <c r="A307" s="15">
         <v>306</v>
       </c>
@@ -13033,7 +12503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="308" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A308" s="15">
         <v>307</v>
       </c>
@@ -13059,7 +12529,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="309" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="309" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A309" s="15">
         <v>308</v>
       </c>
@@ -13085,7 +12555,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="310" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A310" s="15">
         <v>309</v>
       </c>
@@ -13111,7 +12581,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="311" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="311" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A311" s="15">
         <v>310</v>
       </c>
@@ -13137,7 +12607,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="312" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="312" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A312" s="15">
         <v>311</v>
       </c>
@@ -13160,7 +12630,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="313" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="313" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A313" s="15">
         <v>312</v>
       </c>
@@ -13183,7 +12653,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="314" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="314" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A314" s="15">
         <v>313</v>
       </c>
@@ -13206,7 +12676,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="315" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="315" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A315" s="15">
         <v>314</v>
       </c>
@@ -13229,7 +12699,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="316" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="316" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A316" s="15">
         <v>315</v>
       </c>
@@ -13252,7 +12722,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="317" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="317" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A317" s="15">
         <v>316</v>
       </c>
@@ -13278,7 +12748,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="318" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="318" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A318" s="15">
         <v>317</v>
       </c>
@@ -13302,7 +12772,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="319" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="319" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A319" s="15">
         <v>318</v>
       </c>
@@ -13328,7 +12798,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="320" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="320" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A320" s="15">
         <v>319</v>
       </c>
@@ -13351,7 +12821,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="321" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="321" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A321" s="15">
         <v>320</v>
       </c>
@@ -13380,7 +12850,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="322" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="322" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A322" s="15">
         <v>321</v>
       </c>
@@ -13406,7 +12876,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="323" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="323" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A323" s="15">
         <v>322</v>
       </c>
@@ -13432,7 +12902,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="324" ht="16.5" spans="1:9">
+    <row r="324" spans="1:9" ht="16.5">
       <c r="A324" s="15">
         <v>323</v>
       </c>
@@ -13458,7 +12928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="325" ht="16.5" spans="1:9">
+    <row r="325" spans="1:9" ht="16.5">
       <c r="A325" s="15">
         <v>324</v>
       </c>
@@ -13484,7 +12954,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="326" ht="16.5" spans="1:9">
+    <row r="326" spans="1:9" ht="16.5">
       <c r="A326" s="15">
         <v>325</v>
       </c>
@@ -13510,7 +12980,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="327" s="9" customFormat="1" ht="16.5" spans="1:9">
+    <row r="327" spans="1:9" s="9" customFormat="1" ht="16.5">
       <c r="A327" s="15">
         <v>326</v>
       </c>
@@ -13536,7 +13006,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="328" ht="16.5" spans="1:9">
+    <row r="328" spans="1:9" ht="16.5">
       <c r="A328" s="15">
         <v>327</v>
       </c>
@@ -13562,7 +13032,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="329" ht="16.5" spans="1:9">
+    <row r="329" spans="1:9" ht="16.5">
       <c r="A329" s="15">
         <v>328</v>
       </c>
@@ -13588,7 +13058,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="330" ht="16.5" spans="1:9">
+    <row r="330" spans="1:9" ht="16.5">
       <c r="A330" s="15">
         <v>329</v>
       </c>
@@ -13611,7 +13081,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="331" ht="16.5" spans="1:9">
+    <row r="331" spans="1:9" ht="16.5">
       <c r="A331" s="15">
         <v>330</v>
       </c>
@@ -13637,7 +13107,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="332" ht="16.5" spans="1:9">
+    <row r="332" spans="1:9" ht="16.5">
       <c r="A332" s="15">
         <v>331</v>
       </c>
@@ -13660,7 +13130,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="333" ht="15.75" spans="1:9">
+    <row r="333" spans="1:9" ht="15.75">
       <c r="A333" s="5">
         <v>332</v>
       </c>
@@ -13687,39 +13157,36 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H332">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:H332"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="97.5" customWidth="1"/>
     <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="153" customHeight="1" spans="1:1">
+    <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="2" ht="51.75" customHeight="1"/>
-    <row r="3" ht="52.5" customHeight="1"/>
+    <row r="2" spans="1:1" ht="51.75" customHeight="1"/>
+    <row r="3" spans="1:1" ht="52.5" customHeight="1"/>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_4.27/game_module_config_cjj.xlsx
+++ b/config_4.27/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="978">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3859,6 +3859,14 @@
 CheckIsShow 检查是否显示活动入口
 GotoUI 根据参数显示活动的界面
 </t>
+  </si>
+  <si>
+    <t>act_ty_zp1_style/act_ty_zp1_002</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用转盘皮肤</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4528,13 +4536,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ333"/>
+  <dimension ref="A1:AJ334"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C291" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C321" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H305" sqref="H305"/>
+      <selection pane="bottomRight" activeCell="A335" sqref="A335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13156,6 +13164,29 @@
         <v>974</v>
       </c>
     </row>
+    <row r="334" spans="1:9" ht="16.5">
+      <c r="A334" s="15">
+        <v>333</v>
+      </c>
+      <c r="B334" s="57" t="s">
+        <v>976</v>
+      </c>
+      <c r="C334" t="s">
+        <v>977</v>
+      </c>
+      <c r="E334">
+        <v>1</v>
+      </c>
+      <c r="F334">
+        <v>1</v>
+      </c>
+      <c r="G334">
+        <v>1</v>
+      </c>
+      <c r="I334" t="s">
+        <v>974</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H332"/>
   <phoneticPr fontId="15" type="noConversion"/>

--- a/config_4.27/game_module_config_cjj.xlsx
+++ b/config_4.27/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_4.27\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.27\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,14 +16,14 @@
     <sheet name="|lua说明" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$332</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$331</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="975">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3830,15 +3830,6 @@
   </si>
   <si>
     <t>2021年4月19日 23:59:59</t>
-  </si>
-  <si>
-    <t>act_027_jqshl_style/act_027_style_002</t>
-  </si>
-  <si>
-    <t>欢乐豪礼</t>
-  </si>
-  <si>
-    <t>充值消耗模板皮肤配置</t>
   </si>
   <si>
     <t>act_040_mslb</t>
@@ -4536,13 +4527,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ334"/>
+  <dimension ref="A1:AJ333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C321" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A335" sqref="A335"/>
+      <selection pane="bottomRight" activeCell="B340" sqref="B340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13119,76 +13110,53 @@
       <c r="A332" s="15">
         <v>331</v>
       </c>
-      <c r="B332" s="57" t="s">
+      <c r="B332" s="58" t="s">
         <v>968</v>
       </c>
-      <c r="C332" s="32" t="s">
+      <c r="C332" t="s">
         <v>969</v>
       </c>
-      <c r="E332" s="5">
-        <v>1</v>
-      </c>
-      <c r="F332" s="5">
-        <v>1</v>
-      </c>
-      <c r="G332" s="5">
-        <v>1</v>
-      </c>
-      <c r="I332" s="32" t="s">
+      <c r="D332" s="59" t="s">
         <v>970</v>
       </c>
-    </row>
-    <row r="333" spans="1:9" ht="15.75">
-      <c r="A333" s="5">
+      <c r="E332">
+        <v>1</v>
+      </c>
+      <c r="F332">
+        <v>1</v>
+      </c>
+      <c r="G332">
+        <v>1</v>
+      </c>
+      <c r="I332" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" ht="16.5">
+      <c r="A333" s="15">
         <v>332</v>
       </c>
-      <c r="B333" s="58" t="s">
+      <c r="B333" s="57" t="s">
+        <v>973</v>
+      </c>
+      <c r="C333" t="s">
+        <v>974</v>
+      </c>
+      <c r="E333">
+        <v>1</v>
+      </c>
+      <c r="F333">
+        <v>1</v>
+      </c>
+      <c r="G333">
+        <v>1</v>
+      </c>
+      <c r="I333" t="s">
         <v>971</v>
       </c>
-      <c r="C333" t="s">
-        <v>972</v>
-      </c>
-      <c r="D333" s="59" t="s">
-        <v>973</v>
-      </c>
-      <c r="E333">
-        <v>1</v>
-      </c>
-      <c r="F333">
-        <v>1</v>
-      </c>
-      <c r="G333">
-        <v>1</v>
-      </c>
-      <c r="I333" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9" ht="16.5">
-      <c r="A334" s="15">
-        <v>333</v>
-      </c>
-      <c r="B334" s="57" t="s">
-        <v>976</v>
-      </c>
-      <c r="C334" t="s">
-        <v>977</v>
-      </c>
-      <c r="E334">
-        <v>1</v>
-      </c>
-      <c r="F334">
-        <v>1</v>
-      </c>
-      <c r="G334">
-        <v>1</v>
-      </c>
-      <c r="I334" t="s">
-        <v>974</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H332"/>
+  <autoFilter ref="A1:H331"/>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -13211,7 +13179,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="51.75" customHeight="1"/>
